--- a/RedBus/src/test/java/com/qa/Testdata/Book 4.xlsx
+++ b/RedBus/src/test/java/com/qa/Testdata/Book 4.xlsx
@@ -3,23 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{69F8FF24-AD5F-4D7B-ADDE-F5E02B5F735D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8A680D28-CE95-49E4-858A-C9C67DD68EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="14904" windowHeight="13224" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="14928" windowHeight="13224" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O20"/>
+  <oleSize ref="A1:P15"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Category</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>sagar</t>
+  </si>
+  <si>
+    <t>Tirupati</t>
   </si>
 </sst>
 </file>
@@ -548,41 +552,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7206FB3D-7783-4604-B0E2-11DF63B554DD}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{259C2B69-1A79-4BDA-BE21-977FD23E2F8C}">
   <dimension ref="A1:A6"/>
   <sheetViews>
@@ -630,7 +599,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37AFCCC2-173F-465A-86C8-B57BD6AD7F9F}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -667,4 +636,73 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7206FB3D-7783-4604-B0E2-11DF63B554DD}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AAD734-AE6F-4B2D-BA74-8D400D9E0BC1}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>